--- a/Data/2019_planned.xlsx
+++ b/Data/2019_planned.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="123">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -232,223 +232,163 @@
     <t xml:space="preserve">Cecchinato M.</t>
   </si>
   <si>
+    <t xml:space="preserve">2nd Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evans D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federer R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebden M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadal R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiafoe F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Minaur A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laaksonen H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McDonald M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista Agut R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millman J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seppi A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monfils G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsitsipas S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troicki V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitrov G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuevas P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berdych T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haase R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishioka Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khachanov K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kudla D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwartzman D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabbiano T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opelka R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travaglia S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilashvili N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albot R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdasco F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medvedev D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlovic I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayer L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fucsovics M.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bolt A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sock J.</t>
+    <t xml:space="preserve">Simon G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chung H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert P.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carreno-Busta P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goffin D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copil M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohlschreiber P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donskoy E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouille L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marterer M.</t>
   </si>
   <si>
     <t xml:space="preserve">Tsonga J.W.</t>
   </si>
   <si>
-    <t xml:space="preserve">Klizan M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chung H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klahn B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohlschreiber P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li Z.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanni L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carreno Busta P.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chardy J.</t>
   </si>
   <si>
-    <t xml:space="preserve">Humbert U.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djere L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donskoy E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granollers M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copil M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramos-Vinolas A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fucsovics M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Popyrin A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zverev M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medvedev D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fratangelo B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarry N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayer L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marterer M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakharov G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karlovic I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurkacz H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouille L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kukushkin M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querrey S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert P.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goffin D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garin C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vesely J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrison R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pella G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sousa J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travaglia S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilashvili N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albot R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verdasco F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiafoe F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimitrov G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuevas P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabbiano T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opelka R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kudla D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartzman D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berdych T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haase R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsitsipas S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troicki V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Minaur A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laaksonen H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebden M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadal R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thompson J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppi A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monfils G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fritz T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishioka Y.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khachanov K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilic M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McDonald M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bautista Agut R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millman J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evans D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federer R.</t>
   </si>
 </sst>
 </file>
@@ -569,34 +509,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.47959183673469"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -606,21 +546,19 @@
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.99489795918367"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>42</v>
@@ -1331,29 +1269,29 @@
       <c r="G14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>45</v>
+      <c r="H14" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>3.19</v>
+        <v>15.17</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>42</v>
@@ -1378,29 +1316,29 @@
       <c r="G15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>45</v>
+      <c r="H15" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>1.29</v>
+        <v>9.88</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>3.68</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>42</v>
@@ -1425,29 +1363,29 @@
       <c r="G16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>45</v>
+      <c r="H16" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>2.77</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1399,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>42</v>
@@ -1472,29 +1410,29 @@
       <c r="G17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>45</v>
+      <c r="H17" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>12.28</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1446,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>42</v>
@@ -1519,29 +1457,29 @@
       <c r="G18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>45</v>
+      <c r="H18" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>4.44</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>1.22</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1493,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>42</v>
@@ -1566,29 +1504,29 @@
       <c r="G19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>45</v>
+      <c r="H19" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>2.38</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1540,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>42</v>
@@ -1613,29 +1551,29 @@
       <c r="G20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>45</v>
+      <c r="H20" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>1.73</v>
+        <v>2.34</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1587,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>42</v>
@@ -1660,29 +1598,29 @@
       <c r="G21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>45</v>
+      <c r="H21" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>2.38</v>
+        <v>1.63</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>42</v>
@@ -1707,29 +1645,29 @@
       <c r="G22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>45</v>
+      <c r="H22" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>4.37</v>
+        <v>1.15</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <v>1.22</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,7 +1681,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>42</v>
@@ -1754,29 +1692,29 @@
       <c r="G23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>45</v>
+      <c r="H23" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>2.75</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1728,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>42</v>
@@ -1801,29 +1739,29 @@
       <c r="G24" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>45</v>
+      <c r="H24" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>4.9</v>
+        <v>1.13</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>1.19</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +1775,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>42</v>
@@ -1848,29 +1786,29 @@
       <c r="G25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>45</v>
+      <c r="H25" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>4.02</v>
+        <v>4.34</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>42</v>
@@ -1895,29 +1833,29 @@
       <c r="G26" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>45</v>
+      <c r="H26" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>2.07</v>
+        <v>4.11</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>42</v>
@@ -1942,29 +1880,29 @@
       <c r="G27" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>45</v>
+      <c r="H27" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="M27" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>252</v>
-      </c>
       <c r="AC27" s="0" t="n">
-        <v>1.32</v>
+        <v>3.14</v>
       </c>
       <c r="AD27" s="0" t="n">
-        <v>3.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>42</v>
@@ -1989,29 +1927,29 @@
       <c r="G28" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>45</v>
+      <c r="H28" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>1.69</v>
+        <v>3.58</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>2.2</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +1963,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>42</v>
@@ -2036,29 +1974,29 @@
       <c r="G29" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>45</v>
+      <c r="H29" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>1.52</v>
+        <v>4.54</v>
       </c>
       <c r="AD29" s="0" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,7 +2010,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>42</v>
@@ -2083,29 +2021,29 @@
       <c r="G30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>45</v>
+      <c r="H30" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AC30" s="0" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>2.51</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>42</v>
@@ -2130,29 +2068,29 @@
       <c r="G31" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>45</v>
+      <c r="H31" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>1.17</v>
+        <v>5.91</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>5.28</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>42</v>
@@ -2177,29 +2115,29 @@
       <c r="G32" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>45</v>
+      <c r="H32" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="L32" s="0" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>1.6</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>42</v>
@@ -2224,29 +2162,29 @@
       <c r="G33" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>45</v>
+      <c r="H33" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AC33" s="0" t="n">
-        <v>2.23</v>
+        <v>1.35</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>1.67</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2198,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>42</v>
@@ -2271,29 +2209,29 @@
       <c r="G34" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>110</v>
+      <c r="H34" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC34" s="0" t="n">
-        <v>3.35</v>
+        <v>5.55</v>
       </c>
       <c r="AD34" s="0" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>42</v>
@@ -2318,29 +2256,29 @@
       <c r="G35" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="K35" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AC35" s="0" t="n">
-        <v>4.34</v>
+        <v>1.66</v>
       </c>
       <c r="AD35" s="0" t="n">
-        <v>1.23</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>42</v>
@@ -2365,29 +2303,29 @@
       <c r="G36" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>110</v>
+      <c r="H36" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="AC36" s="0" t="n">
-        <v>1.23</v>
+        <v>2.61</v>
       </c>
       <c r="AD36" s="0" t="n">
-        <v>4.37</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,7 +2339,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>42</v>
@@ -2412,29 +2350,29 @@
       <c r="G37" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>110</v>
+      <c r="H37" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AC37" s="0" t="n">
-        <v>1.12</v>
+        <v>5.65</v>
       </c>
       <c r="AD37" s="0" t="n">
-        <v>6.65</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2386,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>42</v>
@@ -2459,29 +2397,29 @@
       <c r="G38" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>110</v>
+      <c r="H38" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AC38" s="0" t="n">
-        <v>3.14</v>
+        <v>1.21</v>
       </c>
       <c r="AD38" s="0" t="n">
-        <v>1.38</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,7 +2433,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>42</v>
@@ -2506,29 +2444,29 @@
       <c r="G39" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>110</v>
+      <c r="H39" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>841.28</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>42</v>
@@ -2553,29 +2491,29 @@
       <c r="G40" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>110</v>
+      <c r="H40" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>1.15</v>
+        <v>3.19</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>5.7</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2527,7 @@
         <v>41</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>42</v>
@@ -2600,29 +2538,29 @@
       <c r="G41" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>110</v>
+      <c r="H41" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="AC41" s="0" t="n">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="AD41" s="0" t="n">
-        <v>5.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +2574,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>42</v>
@@ -2647,29 +2585,29 @@
       <c r="G42" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>110</v>
+      <c r="H42" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>127</v>
+      <c r="J42" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AC42" s="0" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD42" s="0" t="n">
-        <v>10.77</v>
+        <v>8.53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2621,7 @@
         <v>41</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>42</v>
@@ -2694,29 +2632,29 @@
       <c r="G43" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>110</v>
+      <c r="H43" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>8.87</v>
+        <v>1.11</v>
       </c>
       <c r="AD43" s="0" t="n">
-        <v>1.08</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,7 +2668,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>42</v>
@@ -2741,266 +2679,68 @@
       <c r="G44" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>110</v>
+      <c r="H44" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>2.22</v>
+        <v>6.32</v>
       </c>
       <c r="AD44" s="0" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC45" s="0" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD45" s="0" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC46" s="0" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AD46" s="0" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AC47" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD47" s="0" t="n">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC48" s="0" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD48" s="0" t="n">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC49" s="0" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AD49" s="0" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>

--- a/Data/2019_planned.xlsx
+++ b/Data/2019_planned.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -157,238 +157,154 @@
     <t xml:space="preserve">Hard</t>
   </si>
   <si>
-    <t xml:space="preserve">1st Round</t>
+    <t xml:space="preserve">2nd Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wawrinka S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raonic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djokovic N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsonga J.W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlovic I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishikori K.</t>
   </si>
   <si>
     <t xml:space="preserve">Zverev A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedene A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djokovic N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krueger M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majchrzak K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishikori K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paire B.</t>
+    <t xml:space="preserve">Chardy J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chung H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert P.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popyrin A.</t>
   </si>
   <si>
     <t xml:space="preserve">Thiem D.</t>
   </si>
   <si>
+    <t xml:space="preserve">Fognini F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayer L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shapovalov D.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coric B.</t>
   </si>
   <si>
-    <t xml:space="preserve">Darcis S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgios N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raonic M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fognini F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munar J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andujar P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shapovalov D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokkinakis T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wawrinka S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulbis E.</t>
+    <t xml:space="preserve">Fucsovics M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goffin D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copil M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohlschreiber P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medvedev D.</t>
   </si>
   <si>
     <t xml:space="preserve">Ivashka I.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaziri M.</t>
+    <t xml:space="preserve">Carreno Busta P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouille L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marterer M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donskoy E.</t>
   </si>
   <si>
     <t xml:space="preserve">Krajinovic F.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cecchinato M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evans D.</t>
+    <t xml:space="preserve">3rd Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsitsipas S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilashvili N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berdych T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwartzman D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiafoe F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seppi A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdasco F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz T.</t>
   </si>
   <si>
     <t xml:space="preserve">Federer R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ebden M.</t>
+    <t xml:space="preserve">Dimitrov G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabbiano T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista Agut R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khachanov K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Minaur A.</t>
   </si>
   <si>
     <t xml:space="preserve">Nadal R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiafoe F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Minaur A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laaksonen H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilic M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McDonald M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bautista Agut R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millman J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thompson J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppi A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monfils G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fritz T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsitsipas S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troicki V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimitrov G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuevas P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berdych T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haase R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishioka Y.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khachanov K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kudla D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartzman D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabbiano T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opelka R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travaglia S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilashvili N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albot R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verdasco F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrison R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medvedev D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karlovic I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayer L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fucsovics M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolt A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chung H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert P.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carreno-Busta P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goffin D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copil M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohlschreiber P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sousa J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donskoy E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouille L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marterer M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsonga J.W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chardy J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popyrin A.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,10 +401,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,31 +424,31 @@
   <dimension ref="A1:AN65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.72448979591837"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -547,18 +459,17 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +605,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>42</v>
@@ -705,7 +616,7 @@
       <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -718,16 +629,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>1.13</v>
+        <v>3.89</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>6.17</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,7 +652,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>42</v>
@@ -752,7 +663,7 @@
       <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -768,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>24.13</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,7 +699,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>42</v>
@@ -799,7 +710,7 @@
       <c r="G4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -812,16 +723,16 @@
         <v>51</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>14.75</v>
+        <v>5.93</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +746,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>42</v>
@@ -846,7 +757,7 @@
       <c r="G5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -859,16 +770,16 @@
         <v>53</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>3.85</v>
+        <v>1.12</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>1.28</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +793,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>42</v>
@@ -893,7 +804,7 @@
       <c r="G6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -906,16 +817,16 @@
         <v>55</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>5.47</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>42</v>
@@ -940,7 +851,7 @@
       <c r="G7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -953,16 +864,16 @@
         <v>57</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>2.1</v>
+        <v>6.05</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,7 +887,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
@@ -987,7 +898,7 @@
       <c r="G8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -1003,13 +914,13 @@
         <v>13</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>3.03</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +934,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>42</v>
@@ -1034,7 +945,7 @@
       <c r="G9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -1047,16 +958,16 @@
         <v>61</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>27</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>6.45</v>
+        <v>5.83</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>42</v>
@@ -1081,7 +992,7 @@
       <c r="G10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -1094,16 +1005,16 @@
         <v>63</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>3.73</v>
+        <v>1.29</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>1.29</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>42</v>
@@ -1128,7 +1039,7 @@
       <c r="G11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -1141,16 +1052,16 @@
         <v>65</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>1.27</v>
+        <v>5.72</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>3.86</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1075,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>42</v>
@@ -1175,7 +1086,7 @@
       <c r="G12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -1188,16 +1099,16 @@
         <v>67</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>2.68</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>43480</v>
+        <v>43482</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>42</v>
@@ -1222,7 +1133,7 @@
       <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -1235,16 +1146,16 @@
         <v>69</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>2.09</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>42</v>
@@ -1270,28 +1181,28 @@
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="L14" s="0" t="n">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>15.17</v>
+        <v>5.06</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>42</v>
@@ -1317,28 +1228,28 @@
         <v>44</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="L15" s="0" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>9.88</v>
+        <v>2.52</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>42</v>
@@ -1364,28 +1275,28 @@
         <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="L16" s="0" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>4.91</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>42</v>
@@ -1411,28 +1322,28 @@
         <v>44</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="L17" s="0" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>1.05</v>
+        <v>3.07</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>11.04</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,7 +1357,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>42</v>
@@ -1458,7 +1369,7 @@
         <v>44</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>5</v>
@@ -1470,16 +1381,16 @@
         <v>80</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>7.23</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1404,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>42</v>
@@ -1505,7 +1416,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>5</v>
@@ -1517,16 +1428,16 @@
         <v>82</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>3.47</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>42</v>
@@ -1552,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>5</v>
@@ -1564,16 +1475,16 @@
         <v>84</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>35</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>42</v>
@@ -1599,7 +1510,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>5</v>
@@ -1611,16 +1522,16 @@
         <v>86</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>42</v>
@@ -1646,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>5</v>
@@ -1658,16 +1569,16 @@
         <v>88</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <v>5.74</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1592,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>42</v>
@@ -1693,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>5</v>
@@ -1708,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>6.42</v>
+        <v>9.11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +1639,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>42</v>
@@ -1740,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>5</v>
@@ -1752,16 +1663,16 @@
         <v>92</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>1.13</v>
+        <v>2.42</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,7 +1686,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>42</v>
@@ -1787,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>5</v>
@@ -1799,911 +1710,61 @@
         <v>94</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>4.34</v>
+        <v>7.06</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AD26" s="0" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AD28" s="0" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>43481</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC29" s="0" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AD29" s="0" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC30" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AD30" s="0" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="0" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="AD31" s="0" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="AC32" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD32" s="0" t="n">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC33" s="0" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD33" s="0" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AD34" s="0" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC35" s="0" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD35" s="0" t="n">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC36" s="0" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC37" s="0" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AD37" s="0" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC38" s="0" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD38" s="0" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC39" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD39" s="0" t="n">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="AC40" s="0" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AD40" s="0" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AC41" s="0" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD41" s="0" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="AC42" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD42" s="0" t="n">
-        <v>8.53</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC43" s="0" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD43" s="0" t="n">
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>149</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC44" s="0" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AD44" s="0" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Data/2019_planned.xlsx
+++ b/Data/2019_planned.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -157,154 +157,103 @@
     <t xml:space="preserve">Hard</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wawrinka S.</t>
+    <t xml:space="preserve">3rd Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federer R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Minaur A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadal R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsitsipas S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilashvili N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdasco F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berdych T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwartzman D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitrov G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabbiano T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista Agut R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khachanov K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiafoe F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seppi A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fognini F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carreno Busta P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert P.H.</t>
   </si>
   <si>
     <t xml:space="preserve">Raonic M.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sousa J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishikori K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coric B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krajinovic F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goffin D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medvedev D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouille L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popyrin A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zverev A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt A.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Djokovic N.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tsonga J.W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karlovic I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishikori K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zverev A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chardy J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chung H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert P.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popyrin A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiem D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fognini F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayer L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel T.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shapovalov D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coric B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fucsovics M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolt A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goffin D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copil M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kohlschreiber P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sousa J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrison R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medvedev D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivashka I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carreno Busta P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouille L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marterer M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donskoy E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krajinovic F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsitsipas S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilashvili N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berdych T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartzman D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiafoe F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppi A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilic M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verdasco F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fritz T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federer R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimitrov G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabbiano T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bautista Agut R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khachanov K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Minaur A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadal R.</t>
   </si>
 </sst>
 </file>
@@ -424,31 +373,31 @@
   <dimension ref="A1:AN65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.59183673469388"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.59183673469388"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -459,17 +408,17 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.72448979591837"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +554,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>42</v>
@@ -629,16 +578,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>3.89</v>
+        <v>10.74</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,7 +601,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>42</v>
@@ -676,16 +625,16 @@
         <v>49</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1.07</v>
+        <v>7.1</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>9.33</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +648,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>42</v>
@@ -723,16 +672,16 @@
         <v>51</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>5.93</v>
+        <v>1.37</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>1.14</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +695,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>42</v>
@@ -770,16 +719,16 @@
         <v>53</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>6.51</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +742,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>42</v>
@@ -817,16 +766,16 @@
         <v>55</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>2.22</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +789,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>42</v>
@@ -864,16 +813,16 @@
         <v>57</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>6.05</v>
+        <v>1.09</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>1.14</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
@@ -911,16 +860,16 @@
         <v>59</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>1.54</v>
+        <v>2.59</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>2.54</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>42</v>
@@ -958,16 +907,16 @@
         <v>61</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>5.83</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>1.15</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +930,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>42</v>
@@ -1005,16 +954,16 @@
         <v>63</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>3.69</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +977,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>42</v>
@@ -1052,16 +1001,16 @@
         <v>65</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>5.72</v>
+        <v>5.17</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>42</v>
@@ -1099,16 +1048,16 @@
         <v>67</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>1.21</v>
+        <v>6.66</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>4.58</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,7 +1071,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>42</v>
@@ -1146,16 +1095,16 @@
         <v>69</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>3.04</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1118,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>42</v>
@@ -1193,16 +1142,16 @@
         <v>71</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>19</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>5.06</v>
+        <v>2.75</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1165,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>42</v>
@@ -1240,16 +1189,16 @@
         <v>73</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>2.52</v>
+        <v>1.43</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>1.54</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1212,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>42</v>
@@ -1287,16 +1236,16 @@
         <v>75</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>1.73</v>
+        <v>1.08</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>2.14</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,7 +1259,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>42</v>
@@ -1334,394 +1283,43 @@
         <v>77</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>3.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC18" s="0" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AD20" s="0" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD21" s="0" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AD22" s="0" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD23" s="0" t="n">
-        <v>9.11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AD24" s="0" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>43482</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="0" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="AD25" s="0" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Data/2019_planned.xlsx
+++ b/Data/2019_planned.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -160,100 +160,79 @@
     <t xml:space="preserve">3rd Round</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritz T.</t>
+    <t xml:space="preserve">Djokovic N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shapovalov D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zverev A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishikori K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouille L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popyrin A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goffin D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medvedev D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert P.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raonic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fognini F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carreno Busta P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coric B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krajinovic F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsitsipas S.</t>
   </si>
   <si>
     <t xml:space="preserve">Federer R.</t>
   </si>
   <si>
-    <t xml:space="preserve">de Minaur A.</t>
+    <t xml:space="preserve">Tiafoe F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitrov G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berdych T.</t>
   </si>
   <si>
     <t xml:space="preserve">Nadal R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tsitsipas S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilashvili N.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cilic M.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verdasco F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berdych T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartzman D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimitrov G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabbiano T.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bautista Agut R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khachanov K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiafoe F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppi A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fognini F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carreno Busta P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert P.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raonic M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sousa J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nishikori K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coric B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krajinovic F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goffin D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medvedev D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouille L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popyrin A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zverev A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolt A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djokovic N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shapovalov D.</t>
   </si>
 </sst>
 </file>
@@ -373,31 +352,30 @@
   <dimension ref="A1:AN65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="J13" activeCellId="0" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.45408163265306"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.45408163265306"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -408,17 +386,18 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.59183673469388"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +533,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>42</v>
@@ -578,16 +557,16 @@
         <v>47</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>10.74</v>
+        <v>1.05</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>1.06</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +580,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>42</v>
@@ -625,16 +604,16 @@
         <v>49</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>7.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>1.11</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,7 +627,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>42</v>
@@ -672,16 +651,16 @@
         <v>51</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>1.37</v>
+        <v>5.96</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>3.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +674,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>42</v>
@@ -719,16 +698,16 @@
         <v>53</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>3.79</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +721,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>42</v>
@@ -766,16 +745,16 @@
         <v>55</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>1.26</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>4.09</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +768,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>42</v>
@@ -813,16 +792,16 @@
         <v>57</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>1.09</v>
+        <v>5.33</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>8.1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +815,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
@@ -860,16 +839,16 @@
         <v>59</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>2.59</v>
+        <v>1.75</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>1.53</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +862,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>42</v>
@@ -907,16 +886,16 @@
         <v>61</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>1.84</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,28 +921,28 @@
         <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>1.71</v>
+        <v>5.75</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>2.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,28 +968,28 @@
         <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>5.17</v>
+        <v>3.11</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,28 +1015,28 @@
         <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>6.66</v>
+        <v>5.68</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,218 +1062,47 @@
         <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>4.86</v>
+        <v>2.09</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>43484</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>43484</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>149</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>43484</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="AC16" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD16" s="0" t="n">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>43484</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC17" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD17" s="0" t="n">
-        <v>12.56</v>
-      </c>
-    </row>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
